--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zr/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zr/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -219,51 +219,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑色鸵鸟皮腰带/ 32mm宽/ 100cm总长/ 方头/ 上线不打孔/ 配拉丝H扣银色1个</t>
-    <rPh sb="0" eb="1">
+    <t>前双插袋单肩包/ 黑色Togo/ 机车/ 银色五金/ * 1</t>
+    <rPh sb="0" eb="1">
+      <t>qian</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shuang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dan'jian'bao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
       <t>hei'se</t>
     </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'che</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yin'se</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wu'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加急下，客人17号出门，肩带用Togo</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ji</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>tuo'niao'p</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yao'dai</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zong'c</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>chang</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>fang'tou</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>tou</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bu'da'kong</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>pei</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>la'si</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>kou</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>yin'se</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ge</t>
+      <t>xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'ren</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chu'men</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian'dai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -640,6 +644,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -728,27 +753,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,19 +774,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>929150</xdr:colOff>
+      <xdr:colOff>923196</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3337400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -795,8 +799,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1993900" y="2578101"/>
-          <a:ext cx="4980450" cy="3311999"/>
+          <a:off x="2006600" y="2565401"/>
+          <a:ext cx="4961796" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,8 +1080,8 @@
   </sheetPr>
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,117 +1095,119 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
-        <v>43192</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="C7" s="12">
+        <v>43196</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="42">
-        <f>C7+15</f>
-        <v>43207</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
+      <c r="C8" s="12">
+        <f>C7+10</f>
+        <v>43206</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="2:7" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1232,40 +1238,29 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1275,6 +1270,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zr/Desktop/prince/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1685</t>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料/ 雷克萨斯汽车钥匙包：黑色/圆纹/里面黑色羊皮/刻字如图</t>
+    <rPh sb="0" eb="1">
+      <t>lai'liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1703</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -195,23 +216,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机车/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>ji'che</t>
+    <t>手缝/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wu</t>
@@ -219,55 +226,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前双插袋单肩包/ 黑色Togo/ 机车/ 银色五金/ * 1</t>
-    <rPh sb="0" eb="1">
-      <t>qian</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shuang</t>
+    <t>铜模大小1cm</t>
+    <rPh sb="0" eb="1">
+      <t>tong'mo</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>cha'dai</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dan'jian'bao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ji'che</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>yin'se</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wu'jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加急下，客人17号出门，肩带用Togo</t>
-    <rPh sb="0" eb="1">
-      <t>jia'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xia</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ke'ren</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>hao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>chu'men</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jian'dai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yong</t>
+      <t>da'xiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,6 +608,87 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,87 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,20 +737,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>923196</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1503880</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3337400</xdr:rowOff>
+      <xdr:rowOff>1854200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -799,8 +763,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="2565401"/>
-          <a:ext cx="4961796" cy="3311999"/>
+          <a:off x="368299" y="3035300"/>
+          <a:ext cx="1453081" cy="1358900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>330000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>928200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3138000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="-5400000">
+          <a:off x="3073400" y="1778000"/>
+          <a:ext cx="2808000" cy="4992000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,8 +1082,8 @@
   </sheetPr>
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,119 +1097,119 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19"/>
+      <c r="C5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20"/>
+      <c r="C6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39"/>
-      <c r="C5" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="39">
         <v>43196</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12">
-        <f>C7+10</f>
-        <v>43206</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="39">
+        <f>C7+20</f>
+        <v>43216</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="2:7" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1238,29 +1240,36 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1270,17 +1279,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -185,28 +185,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郁</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来料/ 雷克萨斯汽车钥匙包：黑色/圆纹/里面黑色羊皮/刻字如图</t>
-    <rPh sb="0" eb="1">
-      <t>lai'liao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1703</t>
+    <t>订单编号：1704</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -216,9 +195,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手缝/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
+    <t>总务（老挝海林）</t>
+    <rPh sb="0" eb="1">
+      <t>zong'wu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lao'wo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hai'lin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE13061/ 前凸袋单拉链公文包/ 头骨/ 黑色*5、咖色*5</t>
+    <rPh sb="9" eb="10">
+      <t>qian'tu'dai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dan'la'lian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gong'wen'bao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>tou'gu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hei'se</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ka'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机车/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>ji'che</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wu</t>
@@ -226,12 +240,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铜模大小1cm</t>
-    <rPh sb="0" eb="1">
-      <t>tong'mo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da'xiao</t>
+    <t>银色</t>
+    <rPh sb="0" eb="1">
+      <t>yin'se</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,6 +619,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,36 +709,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,15 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,20 +748,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50799</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1503880</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1002170</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1854200</xdr:rowOff>
+      <xdr:rowOff>3149600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -763,46 +774,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368299" y="3035300"/>
-          <a:ext cx="1453081" cy="1358900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>101800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>330000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>928200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3138000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="3073400" y="1778000"/>
-          <a:ext cx="2808000" cy="4992000"/>
+          <a:off x="1904999" y="2794000"/>
+          <a:ext cx="5142371" cy="2895600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1083,7 +1056,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,119 +1070,117 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="42">
         <v>43196</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="42">
         <f>C7+20</f>
         <v>43216</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="2:7" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1240,29 +1211,33 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -1279,10 +1254,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -185,7 +185,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1704</t>
+    <t>订单编号：1705</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -195,44 +195,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总务（老挝海林）</t>
-    <rPh sb="0" eb="1">
-      <t>zong'wu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>lao'wo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hai'lin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AE13061/ 前凸袋单拉链公文包/ 头骨/ 黑色*5、咖色*5</t>
-    <rPh sb="9" eb="10">
-      <t>qian'tu'dai</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>dan'la'lian</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>gong'wen'bao</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>tou'gu</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ka'se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机车/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>ji'che</t>
+    <t>阿伟（Mack_bobo）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手缝/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wu</t>
@@ -240,9 +219,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>银色</t>
-    <rPh sb="0" eb="1">
-      <t>yin'se</t>
+    <t>车匙包/ 深紫色（比348色深一些）山羊皮/ 宝马X5/ 露Logo</t>
+    <rPh sb="0" eb="1">
+      <t>che'hsi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shen'zi'se</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>se</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shen</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yi'xei</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>sahn'yang'p</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bao'ma</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>lu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,6 +625,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -707,27 +734,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,19 +755,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25399</xdr:colOff>
+      <xdr:colOff>38299</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
+      <xdr:rowOff>228400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1002170</xdr:colOff>
+      <xdr:colOff>1020788</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3149600</xdr:rowOff>
+      <xdr:rowOff>3124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -773,9 +779,47 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm rot="-5400000">
+          <a:off x="3044044" y="1642255"/>
+          <a:ext cx="2895800" cy="5148089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533524</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1790700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1904999" y="2794000"/>
-          <a:ext cx="5142371" cy="2895600"/>
+          <a:off x="342899" y="2870200"/>
+          <a:ext cx="1508125" cy="1460500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,7 +1100,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,117 +1114,117 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="33"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="12">
         <v>43196</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="12">
         <f>C7+20</f>
         <v>43216</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="2:7" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1211,40 +1255,29 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1254,6 +1287,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -185,7 +185,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1705</t>
+    <t>阿伟（Mack_bobo）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1711</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -195,23 +209,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
+    <t>欧版短夹：掌纹黑色5个（一个内红，一个内橙，三个内黑）</t>
+    <rPh sb="0" eb="1">
+      <t>ou'ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>duan'jia</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>san'ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>nei'hei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机车/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>ji'che</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wu</t>
@@ -219,36 +238,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车匙包/ 深紫色（比348色深一些）山羊皮/ 宝马X5/ 露Logo</t>
-    <rPh sb="0" eb="1">
-      <t>che'hsi</t>
+    <t>可以我们自己做</t>
+    <rPh sb="0" eb="1">
+      <t>ke'yi</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>bao</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shen'zi'se</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>se</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>shen</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yi'xei</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>sahn'yang'p</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>bao'ma</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>lu</t>
+      <t>wo'men</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'ji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,6 +626,87 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,87 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,19 +756,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38299</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>228400</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1020788</xdr:colOff>
+      <xdr:colOff>923196</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3124200</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -779,47 +780,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="3044044" y="1642255"/>
-          <a:ext cx="2895800" cy="5148089"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25399</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1533524</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1790700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
         <a:xfrm>
-          <a:off x="342899" y="2870200"/>
-          <a:ext cx="1508125" cy="1460500"/>
+          <a:off x="2006600" y="2578101"/>
+          <a:ext cx="4961796" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1100,7 +1063,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,117 +1077,119 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19"/>
+      <c r="C5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32" t="s">
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20"/>
+      <c r="C6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39"/>
-      <c r="C5" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
     </row>
     <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
-        <v>43196</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="39">
+        <v>43198</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="39">
         <f>C7+20</f>
-        <v>43216</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+        <v>43218</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="2:7" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1255,29 +1220,36 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1287,17 +1259,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -185,21 +185,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
+    <t>机车/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>ji'che</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1711</t>
+    <t>订单编号：1746</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -209,47 +205,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧版短夹：掌纹黑色5个（一个内红，一个内橙，三个内黑）</t>
-    <rPh sb="0" eb="1">
-      <t>ou'ban</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>duan'jia</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>san'ge</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>nei'hei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机车/ 无</t>
-    <rPh sb="0" eb="1">
+    <t>阿伟（Mack_bobo）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来料/ 杂色豆豆包/ 机车/ 银扣/ 尽皮开</t>
+    <rPh sb="0" eb="1">
+      <t>lai'lai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>liao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>za'se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou'dou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
       <t>ji'che</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以我们自己做</t>
-    <rPh sb="0" eb="1">
-      <t>ke'yi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wo'men</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zi'ji</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zuo</t>
+    <rPh sb="15" eb="16">
+      <t>yin'kou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>kai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银色</t>
+    <rPh sb="0" eb="1">
+      <t>yin'se</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,6 +336,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -600,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -626,6 +631,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,36 +722,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,15 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,15 +762,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>923196</xdr:colOff>
+      <xdr:colOff>1012399</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3350099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -781,8 +787,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="2578101"/>
-          <a:ext cx="4961796" cy="3311999"/>
+          <a:off x="2641600" y="2578100"/>
+          <a:ext cx="4415999" cy="3311999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>812800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>765034</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2108200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="3352800"/>
+          <a:ext cx="2301734" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,10 +1104,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,123 +1119,122 @@
     <col min="5" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="33"/>
+      <c r="C5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
     </row>
-    <row r="4" spans="2:7" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
-      <c r="C5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="39">
-        <v>43198</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="43">
+        <v>43204</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
-    <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="39">
-        <f>C7+20</f>
-        <v>43218</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="43">
+        <f>C7+15</f>
+        <v>43219</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
-    <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
-    <row r="10" spans="2:7" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
-    <row r="11" spans="2:7" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+    <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -1219,30 +1262,34 @@
       <c r="F13" s="5"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="2:7" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
+    <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -1259,10 +1306,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -185,9 +185,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机车/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>ji'che</t>
+    <t>手缝/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wu</t>
@@ -195,7 +195,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1746</t>
+    <t>郁</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1755</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -205,50 +212,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来料/ 杂色豆豆包/ 机车/ 银扣/ 尽皮开</t>
-    <rPh sb="0" eb="1">
-      <t>lai'lai</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>liao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>za'se</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dou'dou</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ji'che</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yin'kou</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jin</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>pi</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>kai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银色</t>
-    <rPh sb="0" eb="1">
-      <t>yin'se</t>
+    <t>奔驰新E：象牙白外皮+棕色内里+露logo+同色线/咖色边油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,6 +602,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -720,27 +711,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -762,19 +732,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>114500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>304600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012399</xdr:colOff>
+      <xdr:colOff>940900</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3350099</xdr:rowOff>
+      <xdr:rowOff>3112600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -786,47 +756,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2641600" y="2578100"/>
-          <a:ext cx="4415999" cy="3311999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>812800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>765034</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2108200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="342900" y="3352800"/>
-          <a:ext cx="2301734" cy="1295400"/>
+        <a:xfrm rot="-5400000">
+          <a:off x="3086100" y="1752600"/>
+          <a:ext cx="2808000" cy="4992000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1107,7 +1039,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,118 +1053,118 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="C3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="43">
-        <v>43204</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="C7" s="13">
+        <v>43206</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="43">
-        <f>C7+15</f>
-        <v>43219</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="C8" s="13">
+        <f>C7+10</f>
+        <v>43216</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1263,40 +1195,29 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1306,6 +1227,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -185,24 +185,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手缝/ 无</t>
-    <rPh sb="0" eb="1">
+    <t>阿伟（Mack_bobo）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色</t>
+    <rPh sb="0" eb="1">
+      <t>jin'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半手缝/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="1" eb="2">
       <t>shou'feng</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="5" eb="6">
       <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郁</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1755</t>
+    <t>订单编号：1772</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -212,13 +222,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奔驰新E：象牙白外皮+棕色内里+露logo+同色线/咖色边油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
+    <t>来料/ 杏色美洲/ mini凯莉2代/ 半手缝/ 金扣
+开完的肚子和尾巴各开一个欧版短夹/ 机车</t>
+    <rPh sb="0" eb="1">
+      <t>lai'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing'se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei'zhou</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kai'l</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ban</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shou'feng</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jin'kou</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>kai'wan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>de</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>du'zi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>he</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>wei'ba</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>kai</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ou'ban</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>duan'jia</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ji'che</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,27 +663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -711,6 +751,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -732,19 +793,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114500</xdr:colOff>
+      <xdr:colOff>89100</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>304600</xdr:rowOff>
+      <xdr:rowOff>279200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>940900</xdr:colOff>
+      <xdr:colOff>915500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3112600</xdr:rowOff>
+      <xdr:rowOff>3087200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -756,8 +817,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="3086100" y="1752600"/>
+        <a:xfrm rot="5400000">
+          <a:off x="3060700" y="1714500"/>
           <a:ext cx="2808000" cy="4992000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1039,7 +1100,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,118 +1114,118 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="C3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
-        <v>43206</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="43">
+        <v>43209</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
-        <f>C7+10</f>
-        <v>43216</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="43">
+        <f>C7+15</f>
+        <v>43224</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1195,29 +1256,40 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1227,17 +1299,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -185,34 +185,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金色</t>
-    <rPh sb="0" eb="1">
-      <t>jin'se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半手缝/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>ban</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
       <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1772</t>
+    <t>郁</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1779</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -222,64 +213,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>来料/ 杏色美洲/ mini凯莉2代/ 半手缝/ 金扣
-开完的肚子和尾巴各开一个欧版短夹/ 机车</t>
-    <rPh sb="0" eb="1">
-      <t>lai'l</t>
+    <t>手缝/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>xing'se</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mei'zhou</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>kai'l</t>
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单肩背包（35cm 手缝）+卡包（机车）/黑色togo/打字热烫无色YG，字体如图，位置如图。</t>
+    <rPh sb="10" eb="11">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="17" eb="18">
-      <t>dai</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ban</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>jin'kou</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>kai'wan</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>de</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>du'zi</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>he</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>wei'ba</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>kai</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>yi'ge</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ou'ban</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>duan'jia</t>
-    </rPh>
-    <rPh sb="46" eb="47">
       <t>ji'che</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,20 +744,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>89100</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>279200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>915500</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>359086</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3087200</xdr:rowOff>
+      <xdr:rowOff>1980000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -817,9 +769,85 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3060700" y="1714500"/>
-          <a:ext cx="2808000" cy="4992000"/>
+        <a:xfrm>
+          <a:off x="317501" y="2540000"/>
+          <a:ext cx="2962585" cy="1980000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>787400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1012991</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3314700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276601" y="3327400"/>
+          <a:ext cx="3781590" cy="2527300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2070100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1542615</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3251200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="4826000"/>
+          <a:ext cx="1491815" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1100,7 +1128,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,14 +1156,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
@@ -1144,7 +1172,7 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="28"/>
@@ -1169,7 +1197,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
@@ -1179,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="43">
-        <v>43209</v>
+        <v>43212</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -1192,7 +1220,7 @@
       </c>
       <c r="C8" s="43">
         <f>C7+15</f>
-        <v>43224</v>
+        <v>43227</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -1213,7 +1241,9 @@
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -189,49 +189,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
+    <t>郁</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手缝/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郁</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1779</t>
+    <t>黑色togo+金色五金+30bk+标</t>
+    <rPh sb="17" eb="18">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色</t>
+    <rPh sb="0" eb="1">
+      <t>jin'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1782</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单肩背包（35cm 手缝）+卡包（机车）/黑色togo/打字热烫无色YG，字体如图，位置如图。</t>
-    <rPh sb="10" eb="11">
-      <t>shou'feng</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ji'che</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>wu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,6 +609,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -703,27 +718,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -744,20 +738,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>359086</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>917132</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1980000</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -770,84 +764,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="317501" y="2540000"/>
-          <a:ext cx="2962585" cy="1980000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>355601</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>787400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012991</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3314700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3276601" y="3327400"/>
-          <a:ext cx="3781590" cy="2527300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2070100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1542615</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3251200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="368300" y="4826000"/>
-          <a:ext cx="1491815" cy="1181100"/>
+          <a:off x="2006600" y="2336801"/>
+          <a:ext cx="4955732" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,120 +1060,120 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="40"/>
+      <c r="C5" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="C5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="13">
         <v>43212</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="13">
         <f>C7+15</f>
         <v>43227</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1286,40 +1204,29 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1329,6 +1236,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -206,26 +206,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑色togo+金色五金+30bk+标</t>
-    <rPh sb="17" eb="18">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金色</t>
-    <rPh sb="0" eb="1">
-      <t>jin'se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1782</t>
+    <t>订单编号：1783</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk30:黑色togo/银色五金/+标</t>
+    <rPh sb="18" eb="19">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银色</t>
+    <rPh sb="0" eb="1">
+      <t>yin'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新代理，注意细节</t>
+    <rPh sb="0" eb="1">
+      <t>xin'dai'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xi'jie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +622,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,87 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,7 +1059,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,120 +1073,122 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="40">
         <v>43212</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="40">
         <f>C7+15</f>
         <v>43227</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1204,29 +1219,36 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1236,17 +1258,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -189,16 +189,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郁</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
+    <t>机车/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>ji'che</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wu</t>
@@ -206,7 +199,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1783</t>
+    <t>订单编号：1866</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -216,29 +209,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bk30:黑色togo/银色五金/+标</t>
-    <rPh sb="18" eb="19">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银色</t>
-    <rPh sb="0" eb="1">
-      <t>yin'se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新代理，注意细节</t>
-    <rPh sb="0" eb="1">
-      <t>xin'dai'li</t>
+    <t>思欣</t>
+    <rPh sb="0" eb="1">
+      <t>si'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">黑色/ 肚皮无拼腰带(普通大货)/
+ 38mm宽/ 圆头/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>油边方案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 115cm总长*2
+38mm宽/ 方头/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 油边方案</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 110cm总长*1</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>hei'se</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>zhu'yi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xi'jie</t>
+      <t>du'pi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yao'dai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>pu'tong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>da'huo</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yuan'tou</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>you'bian</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>zong'c</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fang'tou</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>you'bian</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>zong'chang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,6 +411,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -622,6 +709,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,66 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,19 +839,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>241301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>917132</xdr:colOff>
+      <xdr:colOff>1003300</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -777,8 +864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="2336801"/>
-          <a:ext cx="4955732" cy="3311999"/>
+          <a:off x="1917700" y="3009901"/>
+          <a:ext cx="5130800" cy="2887579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,122 +1160,120 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40">
-        <v>43212</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="13">
+        <v>43227</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="40">
-        <f>C7+15</f>
-        <v>43227</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="13">
+        <f>C7+10</f>
+        <v>43237</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1219,36 +1304,29 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1258,10 +1336,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -199,7 +199,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1866</t>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1870</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -209,115 +216,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>思欣</t>
-    <rPh sb="0" eb="1">
-      <t>si'xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">黑色/ 肚皮无拼腰带(普通大货)/
- 38mm宽/ 圆头/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>油边方案</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ 115cm总长*2
-38mm宽/ 方头/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 油边方案</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ 110cm总长*1</t>
-    </r>
-    <rPh sb="0" eb="1">
+    <t>阿伟（Makc_bobo）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粪叉手机壳/ 哑光黑色鳄鱼皮/ 不挑部位/ * 10</t>
+    <rPh sb="0" eb="1">
+      <t>fen'cha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou'ji'ke</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ya'guagn</t>
+    </rPh>
+    <rPh sb="9" eb="10">
       <t>hei'se</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>du'pi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yao'dai</t>
-    </rPh>
     <rPh sb="11" eb="12">
-      <t>pu'tong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>da'huo</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>yuan'tou</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>you'bian</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>zong'c</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>fang'tou</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>you'bian</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>fang'an</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>zong'chang</t>
+      <t>e'yu'pi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bu'tiao'bu'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：边油细腻一点，薄一点（5天出货）</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bian'you</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi'ni</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'dian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bao'yi'dian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chu'huo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -411,14 +359,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -709,27 +649,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -818,6 +737,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -839,19 +779,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>241301</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:colOff>917132</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3128880</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -864,8 +804,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1917700" y="3009901"/>
-          <a:ext cx="5130800" cy="2887579"/>
+          <a:off x="2006600" y="2806701"/>
+          <a:ext cx="4955732" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,7 +1086,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,120 +1100,122 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
+      <c r="C3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
-        <v>43227</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="43">
+        <v>43228</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
-        <f>C7+10</f>
-        <v>43237</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="C8" s="43">
+        <f>C7+5</f>
+        <v>43233</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1304,29 +1246,40 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1336,17 +1289,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -185,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>机车/ 无</t>
     <rPh sb="0" eb="1">
       <t>ji'che</t>
@@ -199,14 +195,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1870</t>
+    <t>订单编号：1874</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -216,56 +205,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Makc_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粪叉手机壳/ 哑光黑色鳄鱼皮/ 不挑部位/ * 10</t>
-    <rPh sb="0" eb="1">
-      <t>fen'cha</t>
+    <t>办公室</t>
+    <rPh sb="0" eb="1">
+      <t>ban'gog'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女款单肩包/ Epsom黑色+红色内里金扣*1
+Epsom大红色+红里金扣*1</t>
+    <rPh sb="0" eb="1">
+      <t>nv'kuan</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>shou'ji'ke</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ya'guagn</t>
-    </rPh>
-    <rPh sb="9" eb="10">
+      <t>dan'jian'bao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>hei'se</t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>e'yu'pi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>bu'tiao'bu'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：边油细腻一点，薄一点（5天出货）</t>
-    <rPh sb="0" eb="1">
-      <t>zhu'yi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>bian'you</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xi'ni</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yi'dian</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bao'yi'dian</t>
-    </rPh>
     <rPh sb="15" eb="16">
-      <t>tian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chu'huo</t>
+      <t>hong'se</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei'li</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jin'kou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>da'hong'se</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jin'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色</t>
+    <rPh sb="0" eb="1">
+      <t>jin'se</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,6 +627,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -737,27 +736,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -779,19 +757,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>917132</xdr:colOff>
+      <xdr:colOff>327126</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -804,8 +782,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="2806701"/>
-          <a:ext cx="4955732" cy="3311999"/>
+          <a:off x="2603500" y="2806701"/>
+          <a:ext cx="3768826" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1086,7 +1064,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,122 +1078,118 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="40"/>
+      <c r="C5" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="C5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="43">
-        <v>43228</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="C7" s="13">
+        <v>43229</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="43">
-        <f>C7+5</f>
-        <v>43233</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="C8" s="13">
+        <f>C7+15</f>
+        <v>43244</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1246,40 +1220,29 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1289,6 +1252,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -195,7 +195,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1874</t>
+    <t>办公室</t>
+    <rPh sb="0" eb="1">
+      <t>ban'gog'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1880</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -205,45 +219,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>办公室</t>
-    <rPh sb="0" eb="1">
-      <t>ban'gog'sh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女款单肩包/ Epsom黑色+红色内里金扣*1
-Epsom大红色+红里金扣*1</t>
-    <rPh sb="0" eb="1">
-      <t>nv'kuan</t>
+    <t>试板小件/ 装逼钱夹</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ban</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>dan'jian'bao</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>hong'se</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>nei'li</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>jin'kou</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>da'hong'se</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>jin'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金色</t>
-    <rPh sb="0" eb="1">
-      <t>jin'se</t>
+      <t>xiao'jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang'bi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qian'jia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,6 +614,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,87 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,19 +744,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>327126</xdr:colOff>
+      <xdr:colOff>929832</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -782,8 +769,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2603500" y="2806701"/>
-          <a:ext cx="3768826" cy="3311999"/>
+          <a:off x="2019300" y="2806701"/>
+          <a:ext cx="4955732" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,7 +1051,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1078,118 +1065,118 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20"/>
+      <c r="C5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="40">
         <v>43229</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="40">
         <f>C7+15</f>
         <v>43244</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1220,29 +1207,36 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1252,17 +1246,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -195,13 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>办公室</t>
-    <rPh sb="0" eb="1">
-      <t>ban'gog'sh</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>wu</t>
@@ -209,28 +202,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1880</t>
+    <t>阿伟（臧劲）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼皮腰带：黑色无拼接/ 38mm宽/ 115cm总长/ 上线不打孔/ 两头都是圆头</t>
+    <rPh sb="0" eb="1">
+      <t>e'yu'pi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yao'dai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hei'se</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu'pin'jie</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zong'c</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shang'x</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bu'da'kong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>liag'tou</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>dou'shi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>yuan'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两头都是下图的造型</t>
+    <rPh sb="0" eb="1">
+      <t>liang'tou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dou'shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'tu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zao'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1891</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试板小件/ 装逼钱夹</t>
-    <rPh sb="0" eb="1">
-      <t>shi'ban</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiao'jian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhuang'bi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qian'jia</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,6 +654,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,66 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,19 +784,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>89100</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>304600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>929832</xdr:colOff>
+      <xdr:colOff>915500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3112600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -768,9 +808,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="2806701"/>
-          <a:ext cx="4955732" cy="3311999"/>
+        <a:xfrm rot="-5400000">
+          <a:off x="3060700" y="1803400"/>
+          <a:ext cx="2808000" cy="4992000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,118 +1105,120 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="2:11" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40">
-        <v>43229</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="13">
+        <v>43230</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="13">
         <f>C7+15</f>
-        <v>43244</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+        <v>43245</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1207,36 +1249,29 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1246,10 +1281,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>业务员：</t>
     <rPh sb="0" eb="1">
@@ -202,76 +202,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（臧劲）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鳄鱼皮腰带：黑色无拼接/ 38mm宽/ 115cm总长/ 上线不打孔/ 两头都是圆头</t>
-    <rPh sb="0" eb="1">
-      <t>e'yu'pi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yao'dai</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wu'pin'jie</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>zong'c</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>shang'x</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bu'da'kong</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>liag'tou</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>dou'shi</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>yuan'tou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两头都是下图的造型</t>
-    <rPh sb="0" eb="1">
-      <t>liang'tou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dou'shi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xia'tu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zao'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1891</t>
+    <t>订单编号：1892</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿伟（Mack_bobo）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸改为30*25</t>
+    <rPh sb="0" eb="1">
+      <t>chi'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴牌信封包/ 主体黑色-边缘条大象灰（315或者309）/ 加大号：30*25/ *1个</t>
+    <rPh sb="0" eb="1">
+      <t>lv'pai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'feng'bao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhu'ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hei'se</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bian'yua'tiao</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>da'xiang'h</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>huo'zhe</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jia'da'hao</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,6 +646,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,87 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,19 +776,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>89100</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>304600</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>915500</xdr:colOff>
+      <xdr:colOff>923196</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3112600</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -808,9 +800,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="-5400000">
-          <a:off x="3060700" y="1803400"/>
-          <a:ext cx="2808000" cy="4992000"/>
+        <a:xfrm>
+          <a:off x="2006600" y="2628901"/>
+          <a:ext cx="4961796" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1088,10 +1080,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1103,124 +1095,127 @@
     <col min="5" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="2:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+      <c r="C3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="2:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="44" t="s">
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="20"/>
+      <c r="C5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
-    </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="21"/>
+      <c r="C6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="40">
         <v>43230</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="2:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="40">
         <f>C7+15</f>
         <v>43245</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="2:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="2:11" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="2:13" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="2:11" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -1248,30 +1243,37 @@
       <c r="F13" s="5"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+    <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="2:11" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="2:13" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1281,17 +1283,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -195,6 +195,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵（吴兄）</t>
+    <rPh sb="0" eb="1">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>无</t>
     <rPh sb="0" eb="1">
       <t>wu</t>
@@ -202,7 +216,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1892</t>
+    <t>订单编号：1904</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -212,58 +226,168 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（Mack_bobo）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸改为30*25</t>
-    <rPh sb="0" eb="1">
-      <t>chi'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gai'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驴牌信封包/ 主体黑色-边缘条大象灰（315或者309）/ 加大号：30*25/ *1个</t>
-    <rPh sb="0" eb="1">
-      <t>lv'pai</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'feng'bao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhu'ti</t>
+    <t>共计4条</t>
+    <rPh sb="0" eb="1">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">来料：咖色鳄鱼皮无接腰带/ 34mm宽/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方头</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ 95cm全长/ 上线不打孔 * 1
+咖色鳄鱼无接/ 38mm宽/ 105cm总长/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方头</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/ 上线不打孔 * 1
+咖色鳄鱼无接/ 34mm宽/ 110或者115cm总长/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圆头</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 上线不打孔 * 2</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>lai'l</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ka'se</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e'yu'pi</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>ti</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>bian'yua'tiao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>da'xiang'h</t>
-    </rPh>
-    <rPh sb="22" eb="23">
+      <t>wu'jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yao'dai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fang'tou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>quan'c</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shang'xian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>bu'da'kong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ka'se</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>e'yu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>wu'jie</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>zong'c</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>fang'tou</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>sahgn'x</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>bu'da'kong</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ka'se</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>e'yu'wu'jie</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="99" eb="100">
       <t>huo'zhe</t>
     </rPh>
-    <rPh sb="30" eb="31">
-      <t>jia'da'hao</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ge</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·</t>
+    <rPh sb="106" eb="107">
+      <t>zong'c</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>yuan'tou</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>shang'x</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>bu'da'kong</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +480,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -646,6 +778,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,66 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,19 +908,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>419101</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>923196</xdr:colOff>
+      <xdr:colOff>669500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -801,8 +933,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="2628901"/>
-          <a:ext cx="4961796" cy="3311999"/>
+          <a:off x="2298701" y="3429001"/>
+          <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1083,7 +1215,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,123 +1229,123 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="2:13" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="40">
-        <v>43230</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="13">
+        <v>43232</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="40">
-        <f>C7+15</f>
-        <v>43245</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="13">
+        <f>C7+7</f>
+        <v>43239</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:13" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1244,36 +1376,29 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1283,10 +1408,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -29,13 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>业务员：</t>
-    <rPh sb="0" eb="1">
-      <t>ye'wu'yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
       <t>xia'dan</t>
@@ -185,6 +178,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道代理：</t>
+    <rPh sb="0" eb="1">
+      <t>qu'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1937</t>
+    <rPh sb="0" eb="1">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>机车/ 无</t>
     <rPh sb="0" eb="1">
       <t>ji'che</t>
@@ -195,198 +212,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵（吴兄）</t>
-    <rPh sb="0" eb="1">
-      <t>zhao</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wu'xiong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1904</t>
-    <rPh sb="0" eb="1">
-      <t>ding'dan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计4条</t>
-    <rPh sb="0" eb="1">
-      <t>gong'ji</t>
+    <t>来料：前凸袋双肩背/ 撞色/ 后幅灰色、前幅上段灰色（断开）凸袋黄色</t>
+    <rPh sb="0" eb="1">
+      <t>lai'l</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>tiao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">来料：咖色鳄鱼皮无接腰带/ 34mm宽/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方头</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ 95cm全长/ 上线不打孔 * 1
-咖色鳄鱼无接/ 38mm宽/ 105cm总长/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方头</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ 上线不打孔 * 1
-咖色鳄鱼无接/ 34mm宽/ 110或者115cm总长/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>圆头</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/ 上线不打孔 * 2</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>lai'l</t>
+      <t>qian'tu'dai</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shuag'jian'bei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhuang'se</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>hou'bei</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>hui'se</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qian'fu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shang'duan</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hui'se</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>duan'kai</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>huang'se</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加急下，边缘条用牛皮、 肩带背面用羊皮</t>
+    <rPh sb="0" eb="1">
+      <t>jia'ji'xia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian'yuan'tiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>niu'p</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jian'dai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>bei'mian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yang'pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿伟（二娘）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>ka'se</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>e'yu'pi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>wu'jie</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yao'dai</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>fang'tou</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>quan'c</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>shang'xian</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>bu'da'kong</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ka'se</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>e'yu</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>wu'jie</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>zong'c</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>fang'tou</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>sahgn'x</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>bu'da'kong</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ka'se</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>e'yu'wu'jie</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>huo'zhe</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>zong'c</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>yuan'tou</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>shang'x</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>bu'da'kong</t>
+      <t>er'niang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银色</t>
+    <rPh sb="0" eb="1">
+      <t>yin'se</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,14 +386,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -778,6 +676,87 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,87 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,19 +806,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
+      <xdr:colOff>431801</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>669500</xdr:colOff>
+      <xdr:colOff>682200</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -933,7 +831,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2298701" y="3429001"/>
+          <a:off x="2311401" y="2552701"/>
           <a:ext cx="4415999" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1215,7 +1113,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,142 +1127,142 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="2:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="2:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="40"/>
-      <c r="C5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
-      <c r="C6" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13">
-        <v>43232</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="40">
+        <v>43237</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13">
-        <f>C7+7</f>
-        <v>43239</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="40">
+        <f>C7+10</f>
+        <v>43247</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="2:13" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1376,29 +1274,36 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B11:G11"/>
@@ -1408,17 +1313,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -192,7 +192,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1937</t>
+    <t>机车/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>ji'che</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1950</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -202,97 +219,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机车/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>ji'che</t>
+    <t>阿伟（深海小鱼）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen'hai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色Togo底皮/ 2尺5腰围</t>
+    <rPh sb="0" eb="1">
+      <t>hei'se</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>di'pi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yao'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>黑色鳄鱼无接/ 38mm宽/ 110cm总长/ 底皮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配黑色Togo</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>hei'se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>e'yu</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来料：前凸袋双肩背/ 撞色/ 后幅灰色、前幅上段灰色（断开）凸袋黄色</t>
-    <rPh sb="0" eb="1">
-      <t>lai'l</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qian'tu'dai</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>shuag'jian'bei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zhuang'se</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>hou'bei</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>fu</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>hui'se</t>
+      <t>wu'jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kuan</t>
     </rPh>
     <rPh sb="20" eb="21">
-      <t>qian'fu</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shang'duan</t>
+      <t>zong'c</t>
     </rPh>
     <rPh sb="24" eb="25">
-      <t>hui'se</t>
+      <t>di'pi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>pei</t>
     </rPh>
     <rPh sb="27" eb="28">
-      <t>duan'kai</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>huang'se</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加急下，边缘条用牛皮、 肩带背面用羊皮</t>
-    <rPh sb="0" eb="1">
-      <t>jia'ji'xia</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>bian'yuan'tiao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>niu'p</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jian'dai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>bei'mian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yang'pi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿伟（二娘）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>er'niang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银色</t>
-    <rPh sb="0" eb="1">
-      <t>yin'se</t>
+      <t>hei'se</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,6 +378,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -806,19 +806,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>431801</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>279401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>682200</xdr:colOff>
+      <xdr:colOff>1004851</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3175000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -831,8 +831,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2311401" y="2552701"/>
-          <a:ext cx="4415999" cy="3311999"/>
+          <a:off x="1905000" y="2806701"/>
+          <a:ext cx="5145051" cy="2895599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,7 +1113,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1128,7 @@
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="26" x14ac:dyDescent="0.3">
       <c r="B2" s="44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -1141,14 +1141,14 @@
         <v>18</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="2:13" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26"/>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
@@ -1192,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="40">
-        <v>43237</v>
+        <v>43239</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
@@ -1204,8 +1204,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="40">
-        <f>C7+10</f>
-        <v>43247</v>
+        <f>C7+7</f>
+        <v>43246</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -1233,6 +1233,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
+      <c r="K10" s="9"/>
       <c r="M10" t="s">
         <v>17</v>
       </c>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -192,9 +192,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机车/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>ji'che</t>
+    <t>无</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手缝/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>shou'feng</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wu</t>
@@ -202,14 +216,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1950</t>
+    <t>订单编号：1955</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
@@ -219,72 +226,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿伟（深海小鱼）</t>
-    <rPh sb="0" eb="1">
-      <t>a'wei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shen'hai</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xiao'yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色Togo底皮/ 2尺5腰围</t>
-    <rPh sb="0" eb="1">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>di'pi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>chi</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yao'wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>黑色鳄鱼无接/ 38mm宽/ 110cm总长/ 底皮</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配黑色Togo</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>hei'se</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>e'yu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wu'jie</t>
+    <t>英菲尼迪车钥匙包：正红色羊皮+白线+咖色变油</t>
+    <rPh sb="9" eb="10">
+      <t>zheng</t>
     </rPh>
     <rPh sb="12" eb="13">
-      <t>kuan</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zong'c</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>di'pi</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>pei</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>hei'se</t>
+      <t>yang'pi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,14 +325,6 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian (正文)"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -676,6 +615,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,36 +705,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,15 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,19 +745,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>279401</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1004851</xdr:colOff>
+      <xdr:colOff>917132</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3175000</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -831,8 +770,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905000" y="2806701"/>
-          <a:ext cx="5145051" cy="2895599"/>
+          <a:off x="2006600" y="2565401"/>
+          <a:ext cx="4955732" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,7 +1052,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,124 +1066,122 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="26" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="21"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="40">
-        <v>43239</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
+      <c r="C7" s="43">
+        <v>43241</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="40">
-        <f>C7+7</f>
-        <v>43246</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="C8" s="43">
+        <f>C7+20</f>
+        <v>43261</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="2:13" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="2:13" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="K10" s="9"/>
       <c r="M10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
@@ -1275,29 +1212,33 @@
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="31"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:13" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -1314,10 +1255,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -199,16 +199,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郁</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手缝/ 无</t>
-    <rPh sb="0" eb="1">
-      <t>shou'feng</t>
+    <t>机车/ 无</t>
+    <rPh sb="0" eb="1">
+      <t>ji'che</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>wu</t>
@@ -216,22 +209,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单编号：1955</t>
+    <t>郁</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背带：黑色togo/全长117cm/按照图片做/纯铜扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号：1961</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英菲尼迪车钥匙包：正红色羊皮+白线+咖色变油</t>
-    <rPh sb="9" eb="10">
-      <t>zheng</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>yang'pi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,6 +713,9 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,19 +742,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>917132</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3350100</xdr:rowOff>
+      <xdr:rowOff>3340100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -770,8 +767,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2006600" y="2565401"/>
-          <a:ext cx="4955732" cy="3311999"/>
+          <a:off x="2743200" y="2806700"/>
+          <a:ext cx="3327400" cy="3327400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1052,7 +1049,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C10" sqref="C10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1064,7 @@
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="26" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1080,14 +1077,14 @@
         <v>18</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1093,7 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="28"/>
@@ -1121,7 +1118,7 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
@@ -1131,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="43">
-        <v>43241</v>
+        <v>43242</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -1143,8 +1140,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="43">
-        <f>C7+20</f>
-        <v>43261</v>
+        <f>C7+7</f>
+        <v>43249</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -1156,10 +1153,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="2:13" ht="265" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">

--- a/2018下单表格.xlsx
+++ b/2018下单表格.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>下单内容：</t>
     <rPh sb="0" eb="1">
@@ -192,9 +192,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <rPh sb="0" eb="1">
-      <t>wu</t>
+    <t>银色</t>
+    <rPh sb="0" eb="1">
+      <t>yin'se</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,23 +209,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郁</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背带：黑色togo/全长117cm/按照图片做/纯铜扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单编号：1961</t>
+    <t>订单编号：1979</t>
     <rPh sb="0" eb="1">
       <t>ding'dan</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>bian'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿伟（深海小鱼-yht）</t>
+    <rPh sb="0" eb="1">
+      <t>a'wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shen'hai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xiao'yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暹罗腰带无接/ 38mm宽/ 115cm总长/ 上线不打孔/ 底皮用Togo/ 配纯银H古典纹银扣</t>
+    <rPh sb="0" eb="1">
+      <t>xian'luo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao'dai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wu'jie</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zong'chang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>sahng'xian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>bu'da'kong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>di'pi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>pei</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>chun'yin</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>gu'dian'wen</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>wen</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yin'kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底皮用Togo</t>
+    <rPh sb="0" eb="1">
+      <t>di'pi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,19 +800,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>929832</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3340100</xdr:rowOff>
+      <xdr:rowOff>3350100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -767,8 +825,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="2806700"/>
-          <a:ext cx="3327400" cy="3327400"/>
+          <a:off x="2019300" y="2819401"/>
+          <a:ext cx="4955732" cy="3311999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1049,7 +1107,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:G10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1122,7 @@
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="26" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1077,14 +1135,14 @@
         <v>18</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1151,7 @@
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="28"/>
@@ -1128,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="43">
-        <v>43242</v>
+        <v>43245</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -1140,8 +1198,8 @@
         <v>5</v>
       </c>
       <c r="C8" s="43">
-        <f>C7+7</f>
-        <v>43249</v>
+        <f>C7+15</f>
+        <v>43260</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -1152,7 +1210,9 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="45"/>
+      <c r="C9" s="45" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
